--- a/data/trans_orig/P39C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>68423</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52926</v>
+        <v>52789</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85966</v>
+        <v>85568</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1297418935026085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1003566436370929</v>
+        <v>0.1000967692803552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1630067376694779</v>
+        <v>0.1622526453709321</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -763,19 +763,19 @@
         <v>46149</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34977</v>
+        <v>32059</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60097</v>
+        <v>59685</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0819553711118907</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06211571865419101</v>
+        <v>0.0569332470757497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1067248823697081</v>
+        <v>0.1059933523112163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -784,19 +784,19 @@
         <v>114572</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95675</v>
+        <v>95100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136683</v>
+        <v>137832</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1050658728013683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08773670692951149</v>
+        <v>0.08720921720859058</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1253422632379342</v>
+        <v>0.1263961658209218</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>127159</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108385</v>
+        <v>107217</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147726</v>
+        <v>147680</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2411156159984225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2055168958932774</v>
+        <v>0.2033015171066569</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.280114804509921</v>
+        <v>0.2800278513258334</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -834,19 +834,19 @@
         <v>127856</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>108782</v>
+        <v>110400</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>149506</v>
+        <v>148942</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2270567275764052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1931838158963175</v>
+        <v>0.196056083341835</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2655051205297924</v>
+        <v>0.2645025911279608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>252</v>
@@ -855,19 +855,19 @@
         <v>255015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>229361</v>
+        <v>227557</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>284552</v>
+        <v>284605</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2338558824086539</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2103305110702956</v>
+        <v>0.2086766462689679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2609422649904514</v>
+        <v>0.2609906722673267</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>151027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>130609</v>
+        <v>129081</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>173996</v>
+        <v>170921</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2863737998896908</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2476569391751781</v>
+        <v>0.2447597305879846</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3299266270179927</v>
+        <v>0.324096098612615</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>159</v>
@@ -905,19 +905,19 @@
         <v>161569</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>140697</v>
+        <v>140909</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>183870</v>
+        <v>183900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2869265032966815</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2498603080220801</v>
+        <v>0.2502364014505687</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3265300211830922</v>
+        <v>0.3265833179715708</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>308</v>
@@ -926,19 +926,19 @@
         <v>312596</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>282878</v>
+        <v>284905</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>340148</v>
+        <v>347888</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2866592050631628</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2594072604146125</v>
+        <v>0.2612663489471156</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3119257692216922</v>
+        <v>0.3190230743626859</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>80535</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63902</v>
+        <v>65042</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97642</v>
+        <v>97389</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1527090860193573</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1211688751230513</v>
+        <v>0.1233304505936663</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1851469226890859</v>
+        <v>0.1846668307587371</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -976,19 +976,19 @@
         <v>87752</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72762</v>
+        <v>71351</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107231</v>
+        <v>105555</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1558364804608989</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1292162671725165</v>
+        <v>0.1267108108691568</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1904292683749401</v>
+        <v>0.187451921142783</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>164</v>
@@ -997,19 +997,19 @@
         <v>168287</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>146042</v>
+        <v>146129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>194119</v>
+        <v>193463</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1543240110258151</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1339247141762286</v>
+        <v>0.1340045581793925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.178012634111327</v>
+        <v>0.1774108321630783</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>100233</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82834</v>
+        <v>83761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>119861</v>
+        <v>120141</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1900596045899208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.157068044811971</v>
+        <v>0.1588257659901925</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2272771723326459</v>
+        <v>0.2278090641109924</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>134</v>
@@ -1047,19 +1047,19 @@
         <v>139776</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>119394</v>
+        <v>119943</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>161121</v>
+        <v>160294</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2482249175541238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2120295763058994</v>
+        <v>0.2130037841982377</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2861309814979745</v>
+        <v>0.2846623771809191</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>231</v>
@@ -1068,19 +1068,19 @@
         <v>240009</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>215008</v>
+        <v>213246</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>268775</v>
+        <v>268641</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2200950287009999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1971686154754964</v>
+        <v>0.195552459232793</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.246474871584668</v>
+        <v>0.2463516462846264</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>110565</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90636</v>
+        <v>92212</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133927</v>
+        <v>131926</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1364203043820373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1118315280944727</v>
+        <v>0.1137754394245599</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1652463060203898</v>
+        <v>0.1627773849129077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -1193,19 +1193,19 @@
         <v>95646</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77666</v>
+        <v>77442</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>114629</v>
+        <v>118040</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.103966811673916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08442230451029807</v>
+        <v>0.08417904088052036</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1246007803786625</v>
+        <v>0.1283086724903924</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>192</v>
@@ -1214,19 +1214,19 @@
         <v>206211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>179390</v>
+        <v>179630</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236801</v>
+        <v>233395</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1191667878547413</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1036672839138864</v>
+        <v>0.1038059824149106</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.136844706072104</v>
+        <v>0.1348759354269426</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>200390</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>176308</v>
+        <v>176804</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225456</v>
+        <v>224142</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2472511284150319</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.217537955454986</v>
+        <v>0.2181491234696837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2781790922420517</v>
+        <v>0.276557557528983</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -1264,19 +1264,19 @@
         <v>243880</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>217833</v>
+        <v>216030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>273015</v>
+        <v>273026</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.265096909874301</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2367833023126331</v>
+        <v>0.2348233828952807</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2967664783396159</v>
+        <v>0.296777637722373</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>413</v>
@@ -1285,19 +1285,19 @@
         <v>444271</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>411783</v>
+        <v>407554</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>484912</v>
+        <v>481828</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2567386275917525</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2379644542813152</v>
+        <v>0.2355204327141045</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2802246579641998</v>
+        <v>0.2784427523989849</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>243724</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>216376</v>
+        <v>217369</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>271358</v>
+        <v>270361</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3007192135215911</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2669751613560341</v>
+        <v>0.2682012961730226</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3348153403218125</v>
+        <v>0.3335848392661548</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>251</v>
@@ -1335,19 +1335,19 @@
         <v>271960</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>244885</v>
+        <v>242458</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>302224</v>
+        <v>300503</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2956189313276916</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2661890906254961</v>
+        <v>0.2635510536709545</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3285156906978953</v>
+        <v>0.3266457086311343</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>482</v>
@@ -1356,19 +1356,19 @@
         <v>515684</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>479438</v>
+        <v>476594</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>554230</v>
+        <v>557183</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2980077086639245</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2770615493424756</v>
+        <v>0.2754180032390932</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.320282934282011</v>
+        <v>0.3219891789821374</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>111347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94153</v>
+        <v>91203</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>134225</v>
+        <v>133782</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1373856383158562</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1161710774506541</v>
+        <v>0.1125308021889774</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1656137411313126</v>
+        <v>0.1650668593042741</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -1406,19 +1406,19 @@
         <v>129661</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>107891</v>
+        <v>108813</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151834</v>
+        <v>152809</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1409406471288051</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1172772916990936</v>
+        <v>0.1182789367906806</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.165042888712203</v>
+        <v>0.1661027839958235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>222</v>
@@ -1427,19 +1427,19 @@
         <v>241008</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>210123</v>
+        <v>212622</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>270786</v>
+        <v>270803</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1392756168109458</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1214277844272841</v>
+        <v>0.1228717333684976</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1564838235389892</v>
+        <v>0.1564936088213654</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>144445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>121939</v>
+        <v>121345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>166947</v>
+        <v>167835</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1782237153654836</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1504546837650108</v>
+        <v>0.1497213300901035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2059879048486883</v>
+        <v>0.2070827828433015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>165</v>
@@ -1477,19 +1477,19 @@
         <v>178820</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153874</v>
+        <v>157622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>205066</v>
+        <v>205587</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1943766999952864</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1672603088472145</v>
+        <v>0.171334265993861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2229057206439137</v>
+        <v>0.2234716044425915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>301</v>
@@ -1498,19 +1498,19 @@
         <v>323265</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290538</v>
+        <v>289514</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>355491</v>
+        <v>357247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1868112590786359</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1678982887405365</v>
+        <v>0.1673064065010306</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.205434225825845</v>
+        <v>0.2064486694474971</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>51474</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38069</v>
+        <v>37924</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66197</v>
+        <v>68120</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08912205019711752</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06591241964026988</v>
+        <v>0.06566246849696188</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1146148529763019</v>
+        <v>0.1179442373644334</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -1623,19 +1623,19 @@
         <v>50686</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38638</v>
+        <v>38323</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67568</v>
+        <v>66427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07586458299618794</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05783172023896715</v>
+        <v>0.05735936709123204</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1011317674673407</v>
+        <v>0.09942401410234093</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -1644,19 +1644,19 @@
         <v>102160</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84245</v>
+        <v>83126</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>124148</v>
+        <v>124434</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08201144227288344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06762969935933394</v>
+        <v>0.0667314251458704</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09966339668076853</v>
+        <v>0.09989267294125181</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>189277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>164437</v>
+        <v>168593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>212517</v>
+        <v>213378</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3277173722136709</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2847088248177167</v>
+        <v>0.2919042033511134</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3679547646070154</v>
+        <v>0.3694456888934614</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>169</v>
@@ -1694,19 +1694,19 @@
         <v>177451</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154411</v>
+        <v>155644</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202338</v>
+        <v>202670</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2655990890116032</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2311143921283093</v>
+        <v>0.2329596351022351</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3028479950356486</v>
+        <v>0.3033450906381087</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>345</v>
@@ -1715,19 +1715,19 @@
         <v>366728</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>333080</v>
+        <v>334488</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>397800</v>
+        <v>398872</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2944003931797369</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2673890223198339</v>
+        <v>0.268518928419435</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3193445422101234</v>
+        <v>0.3202052997235803</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>179795</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>154844</v>
+        <v>157115</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>202554</v>
+        <v>205558</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3112995277688466</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2680999748129168</v>
+        <v>0.2720317051823262</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3507047030596307</v>
+        <v>0.3559069686938641</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>213</v>
@@ -1765,19 +1765,19 @@
         <v>228032</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>203790</v>
+        <v>203164</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>250966</v>
+        <v>251591</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3413066799689949</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3050225662905408</v>
+        <v>0.3040842205231355</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3756318523431058</v>
+        <v>0.3765674325442793</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>379</v>
@@ -1786,19 +1786,19 @@
         <v>407827</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>373849</v>
+        <v>375631</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>441636</v>
+        <v>443099</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3273937855168961</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3001174294712431</v>
+        <v>0.3015475820541759</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3545345804065242</v>
+        <v>0.3557090597374825</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>65738</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50759</v>
+        <v>50389</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82936</v>
+        <v>82667</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1138194707180223</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08788438786759251</v>
+        <v>0.08724356460851779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1435970765612672</v>
+        <v>0.1431302594479955</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -1836,19 +1836,19 @@
         <v>74763</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58777</v>
+        <v>58671</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92794</v>
+        <v>93539</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1119006733015352</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08797451847044664</v>
+        <v>0.08781611048105842</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1388883366983653</v>
+        <v>0.1400044783367749</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>127</v>
@@ -1857,19 +1857,19 @@
         <v>140500</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>118544</v>
+        <v>114853</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>165393</v>
+        <v>163713</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1127903287327631</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09516447721418116</v>
+        <v>0.09220154853640575</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.132773210107794</v>
+        <v>0.1314248971637561</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>91279</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73655</v>
+        <v>74105</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>110113</v>
+        <v>112077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1580415791023426</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1275277535618577</v>
+        <v>0.1283063911688831</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1906510927677605</v>
+        <v>0.1940515155583791</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>123</v>
@@ -1907,19 +1907,19 @@
         <v>137184</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>117887</v>
+        <v>116632</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159575</v>
+        <v>160646</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2053289747216787</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1764465912522297</v>
+        <v>0.1745690705420896</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.238843489139141</v>
+        <v>0.2404466166198552</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>205</v>
@@ -1928,19 +1928,19 @@
         <v>228462</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>203342</v>
+        <v>202658</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>258938</v>
+        <v>258207</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1834040502977205</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1632385193829758</v>
+        <v>0.1626893362245164</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2078690722910126</v>
+        <v>0.207282132738058</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>81733</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65795</v>
+        <v>65413</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97772</v>
+        <v>98886</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1129729537013928</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09094322379731935</v>
+        <v>0.09041579150104111</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.135142744822926</v>
+        <v>0.1366826136195738</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -2053,19 +2053,19 @@
         <v>59678</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45351</v>
+        <v>45735</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76477</v>
+        <v>74819</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06972367864062615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05298470050875059</v>
+        <v>0.0534338293708942</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08935095533994929</v>
+        <v>0.08741362286292607</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>140</v>
@@ -2074,19 +2074,19 @@
         <v>141411</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>117895</v>
+        <v>119259</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>165557</v>
+        <v>164991</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08953489265825361</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07464582636973167</v>
+        <v>0.07550968489549571</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1048234765861068</v>
+        <v>0.1044651323375394</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>208280</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>182047</v>
+        <v>183381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>235130</v>
+        <v>233295</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2878899843706161</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2516298340867839</v>
+        <v>0.2534741626343778</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3250015259836235</v>
+        <v>0.3224657946341119</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>218</v>
@@ -2124,19 +2124,19 @@
         <v>230611</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>204879</v>
+        <v>204027</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>261030</v>
+        <v>254286</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2694314767109974</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2393671931278331</v>
+        <v>0.2383717599760096</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3049705288277931</v>
+        <v>0.2970912619193741</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>424</v>
@@ -2145,19 +2145,19 @@
         <v>438892</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>403919</v>
+        <v>403838</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>477993</v>
+        <v>475852</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2778867732489607</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2557434373350977</v>
+        <v>0.2556924608618509</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3026437647336909</v>
+        <v>0.301288189313701</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>193119</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>169742</v>
+        <v>173595</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>219686</v>
+        <v>221747</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2669334184290043</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2346214000877541</v>
+        <v>0.239947046225125</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3036548164854548</v>
+        <v>0.30650435560794</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>231</v>
@@ -2195,19 +2195,19 @@
         <v>253587</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>225135</v>
+        <v>226806</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>280136</v>
+        <v>283650</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2962743313577113</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2630334209995652</v>
+        <v>0.2649861639020585</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3272930847197552</v>
+        <v>0.3313989729404828</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>425</v>
@@ -2216,19 +2216,19 @@
         <v>446705</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>412404</v>
+        <v>411876</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>486446</v>
+        <v>484385</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2828341267603747</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2611159494533372</v>
+        <v>0.2607819106639233</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3079963339491811</v>
+        <v>0.3066914383061484</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>106464</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89419</v>
+        <v>87369</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127066</v>
+        <v>124203</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.147156468411306</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1235966589132542</v>
+        <v>0.1207634854606004</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1756336106153637</v>
+        <v>0.1716759877974197</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>122</v>
@@ -2266,19 +2266,19 @@
         <v>136845</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>114239</v>
+        <v>116285</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>162138</v>
+        <v>162364</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1598812437117518</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1334694134332543</v>
+        <v>0.135859792618178</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1894322761317426</v>
+        <v>0.1896955796646718</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>229</v>
@@ -2287,19 +2287,19 @@
         <v>243309</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>215605</v>
+        <v>214236</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>275589</v>
+        <v>275634</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1540524004201787</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1365116539026755</v>
+        <v>0.1356446112737989</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1744906300297414</v>
+        <v>0.17451952243588</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>133876</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114759</v>
+        <v>112776</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>156640</v>
+        <v>154476</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1850471750876808</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1586218974783151</v>
+        <v>0.1558810676624263</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2165116032176143</v>
+        <v>0.2135207732409551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>153</v>
@@ -2337,19 +2337,19 @@
         <v>175197</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>152210</v>
+        <v>150093</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>203292</v>
+        <v>200427</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2046892695789133</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1778322157212421</v>
+        <v>0.1753586180907701</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2375137663030729</v>
+        <v>0.2341666302266734</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>288</v>
@@ -2358,19 +2358,19 @@
         <v>309074</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>277499</v>
+        <v>277167</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>345050</v>
+        <v>341232</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1956918069122323</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.17570016339099</v>
+        <v>0.1754897127086497</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2184705994641865</v>
+        <v>0.2160532793015585</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>312194</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>280149</v>
+        <v>279006</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>346991</v>
+        <v>346326</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1183053623715739</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1061620052243525</v>
+        <v>0.1057290640605033</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1314915337357781</v>
+        <v>0.1312395966370927</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>244</v>
@@ -2483,19 +2483,19 @@
         <v>252159</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>224387</v>
+        <v>223001</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>284759</v>
+        <v>282235</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08385458523446856</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07461884786414635</v>
+        <v>0.07415820237683413</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09469531426377095</v>
+        <v>0.09385622758994712</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>540</v>
@@ -2504,19 +2504,19 @@
         <v>564353</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>518764</v>
+        <v>520555</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>614047</v>
+        <v>612810</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09995656395976238</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09188194322196547</v>
+        <v>0.09219923009445265</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1087581970964964</v>
+        <v>0.1085391297784295</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>725106</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>678517</v>
+        <v>679134</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>771944</v>
+        <v>776546</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2747777685794051</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2571229222730343</v>
+        <v>0.2573566615130033</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.292527126993834</v>
+        <v>0.2942709672704982</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>743</v>
@@ -2554,19 +2554,19 @@
         <v>779799</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>727465</v>
+        <v>734228</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>826319</v>
+        <v>830283</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2593189426767597</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2419156847843827</v>
+        <v>0.2441646225700263</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2747889443686105</v>
+        <v>0.2761071541831974</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1434</v>
@@ -2575,19 +2575,19 @@
         <v>1504905</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1444244</v>
+        <v>1441142</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1575851</v>
+        <v>1576465</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2665442567766939</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2558002746483045</v>
+        <v>0.2552507565633778</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2791100025651043</v>
+        <v>0.2792188629613692</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>767665</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>718970</v>
+        <v>720259</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>813177</v>
+        <v>819082</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2909053125407814</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2724526368300417</v>
+        <v>0.2729409310412323</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3081521740510016</v>
+        <v>0.3103898698835959</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>854</v>
@@ -2625,19 +2625,19 @@
         <v>915148</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>862063</v>
+        <v>864390</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>967672</v>
+        <v>969802</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3043286282512527</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2866755531196724</v>
+        <v>0.2874493153390477</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3217955000501118</v>
+        <v>0.3225037178350421</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1594</v>
@@ -2646,19 +2646,19 @@
         <v>1682812</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1615814</v>
+        <v>1612343</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1754630</v>
+        <v>1755488</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2980546930325283</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.286188150843933</v>
+        <v>0.2855734903136756</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3107749567272546</v>
+        <v>0.3109268367281766</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>364084</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>323994</v>
+        <v>327680</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>402238</v>
+        <v>403180</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1379689300841478</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1227769934351146</v>
+        <v>0.1241739694003568</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1524275372782873</v>
+        <v>0.1527844505869271</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>394</v>
@@ -2696,19 +2696,19 @@
         <v>429020</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>387577</v>
+        <v>392802</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>468986</v>
+        <v>471558</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1426690216199882</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1288870593168109</v>
+        <v>0.1306247978874223</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.155959451242087</v>
+        <v>0.1568146031779057</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>742</v>
@@ -2717,19 +2717,19 @@
         <v>793104</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>742368</v>
+        <v>738380</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>846087</v>
+        <v>846946</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1404722417442877</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.131486076614714</v>
+        <v>0.1307796341013513</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1498563683823294</v>
+        <v>0.1500085944762298</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>469833</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>428878</v>
+        <v>429321</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>508386</v>
+        <v>507596</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1780426264240918</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1625227442505029</v>
+        <v>0.1626906209744237</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1926522338847255</v>
+        <v>0.1923529150895413</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>575</v>
@@ -2767,19 +2767,19 @@
         <v>630977</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>586522</v>
+        <v>587611</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>678909</v>
+        <v>677740</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2098288222175308</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1950454764004901</v>
+        <v>0.1954077627425918</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2257684057481896</v>
+        <v>0.2253798553800772</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1025</v>
@@ -2788,19 +2788,19 @@
         <v>1100810</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1038855</v>
+        <v>1038103</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1169323</v>
+        <v>1158493</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1949722444867277</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1839988774857225</v>
+        <v>0.1838657272612243</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.207107072306554</v>
+        <v>0.2051888003613622</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>56123</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42856</v>
+        <v>42022</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74056</v>
+        <v>73911</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09586881089355101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07320641807655109</v>
+        <v>0.07178186149048342</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1265009964868947</v>
+        <v>0.1262536376124335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -3153,19 +3153,19 @@
         <v>66061</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52421</v>
+        <v>52899</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80909</v>
+        <v>81664</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09967138234022759</v>
+        <v>0.09967138234022763</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07909061822736517</v>
+        <v>0.07981264394567671</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1220721406017687</v>
+        <v>0.1232120690304579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>141</v>
@@ -3174,19 +3174,19 @@
         <v>122185</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>103136</v>
+        <v>103455</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144476</v>
+        <v>143306</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09788795287755886</v>
+        <v>0.09788795287755883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08262682844177176</v>
+        <v>0.08288246679451848</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1157460253573807</v>
+        <v>0.1148088602256037</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>134408</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114141</v>
+        <v>114551</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156946</v>
+        <v>156745</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2295919765182053</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1949733953265871</v>
+        <v>0.1956735836872385</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2680909254865316</v>
+        <v>0.2677486157961302</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>216</v>
@@ -3224,19 +3224,19 @@
         <v>131406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114959</v>
+        <v>114784</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>150730</v>
+        <v>147455</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1982605284171787</v>
+        <v>0.1982605284171788</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1734469659408409</v>
+        <v>0.1731819301197728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2274170463023725</v>
+        <v>0.222475455619222</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>351</v>
@@ -3245,19 +3245,19 @@
         <v>265813</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>237776</v>
+        <v>238921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>295108</v>
+        <v>293154</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2129551708282461</v>
+        <v>0.212955170828246</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1904933957150153</v>
+        <v>0.1914109544998868</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2364242344417392</v>
+        <v>0.2348588332736363</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>153218</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>135129</v>
+        <v>131626</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>174205</v>
+        <v>173784</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2617228681400982</v>
+        <v>0.2617228681400981</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2308247344554417</v>
+        <v>0.2248405152445414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2975730727870757</v>
+        <v>0.2968539948992973</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>307</v>
@@ -3295,19 +3295,19 @@
         <v>175841</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>159703</v>
+        <v>157052</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>194904</v>
+        <v>193469</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2653029876094852</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2409544976541317</v>
+        <v>0.2369552648045483</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2940650676508254</v>
+        <v>0.291899657180766</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>490</v>
@@ -3316,19 +3316,19 @@
         <v>329059</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>298454</v>
+        <v>302004</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>356985</v>
+        <v>358972</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2636238894962442</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2391049790838434</v>
+        <v>0.2419489510761938</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.285996972498013</v>
+        <v>0.2875886461989204</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>116402</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97825</v>
+        <v>97232</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>137360</v>
+        <v>136071</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1988359185464049</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1671033396440429</v>
+        <v>0.1660899475763156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2346358286735999</v>
+        <v>0.2324335522319978</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>238</v>
@@ -3366,19 +3366,19 @@
         <v>124853</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109441</v>
+        <v>108780</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>140098</v>
+        <v>142398</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1883744239757839</v>
+        <v>0.188374423975784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1651204806991495</v>
+        <v>0.1641243669598599</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2113757795261564</v>
+        <v>0.2148449001591325</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>375</v>
@@ -3387,19 +3387,19 @@
         <v>241256</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>215020</v>
+        <v>218363</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>265691</v>
+        <v>268334</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1932809294556746</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1722620256719304</v>
+        <v>0.1749409812794514</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2128574632943308</v>
+        <v>0.2149750215523085</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>125268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>108121</v>
+        <v>107992</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>145245</v>
+        <v>146903</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2139804259017408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1846903136186339</v>
+        <v>0.184469343066331</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2481038870021576</v>
+        <v>0.2509370781202737</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>299</v>
@@ -3437,19 +3437,19 @@
         <v>164632</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>145954</v>
+        <v>148113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>182342</v>
+        <v>185145</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2483906776573245</v>
+        <v>0.2483906776573246</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2202103766793078</v>
+        <v>0.2234687013745827</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2751111540551273</v>
+        <v>0.2793399819940196</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>451</v>
@@ -3458,19 +3458,19 @@
         <v>289900</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>264198</v>
+        <v>263578</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>317253</v>
+        <v>316369</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2322520573422764</v>
+        <v>0.2322520573422763</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2116613756433188</v>
+        <v>0.2111641144529129</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2541657705280556</v>
+        <v>0.2534580507235636</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>78482</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61992</v>
+        <v>62467</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100413</v>
+        <v>100077</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09997650536995974</v>
+        <v>0.09997650536995972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07897070350175563</v>
+        <v>0.07957587686625529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1279139341417296</v>
+        <v>0.1274855893989812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -3583,19 +3583,19 @@
         <v>61441</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49212</v>
+        <v>48131</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76689</v>
+        <v>75655</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0685612184551132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05491453723286492</v>
+        <v>0.05370876777582152</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08557599259842352</v>
+        <v>0.0844214201519079</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -3604,19 +3604,19 @@
         <v>139923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117572</v>
+        <v>119678</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>164125</v>
+        <v>164252</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.083230357660091</v>
+        <v>0.08323035766009101</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06993519072194583</v>
+        <v>0.07118762054108982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.097626020341335</v>
+        <v>0.09770199193638013</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>179178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>155718</v>
+        <v>156701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>205470</v>
+        <v>202935</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2282506589066853</v>
+        <v>0.2282506589066854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1983657126155804</v>
+        <v>0.1996176010350212</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2617439077658303</v>
+        <v>0.2585146093706962</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>310</v>
@@ -3654,19 +3654,19 @@
         <v>223192</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199071</v>
+        <v>202780</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>247370</v>
+        <v>248792</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2490553808997572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2221395126016916</v>
+        <v>0.226278792764771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2760356283991721</v>
+        <v>0.2776225370780891</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>477</v>
@@ -3675,19 +3675,19 @@
         <v>402369</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>369470</v>
+        <v>366482</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>436207</v>
+        <v>435863</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2393407676331502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2197711599247023</v>
+        <v>0.2179937183218701</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2594683459336492</v>
+        <v>0.2592638602476668</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>246747</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>216356</v>
+        <v>217845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>274042</v>
+        <v>275738</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3143262694305805</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2756109527086739</v>
+        <v>0.2775078037472549</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3490967091816899</v>
+        <v>0.351257219272149</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>393</v>
@@ -3725,19 +3725,19 @@
         <v>247443</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>224811</v>
+        <v>225777</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>271295</v>
+        <v>269336</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2761173648772088</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2508621578454352</v>
+        <v>0.2519407326123922</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3027333164256487</v>
+        <v>0.3005473440780744</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>630</v>
@@ -3746,19 +3746,19 @@
         <v>494191</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>460643</v>
+        <v>461839</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>530685</v>
+        <v>531894</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2939587343124896</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2740035160998942</v>
+        <v>0.2747151736473474</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3156665727018269</v>
+        <v>0.3163857009362961</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>128018</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>108348</v>
+        <v>107842</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>149788</v>
+        <v>148014</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1630790507542151</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1380227488305166</v>
+        <v>0.1373770938355022</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1908121274417449</v>
+        <v>0.1885524866007322</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>227</v>
@@ -3796,19 +3796,19 @@
         <v>146371</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>130942</v>
+        <v>128442</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164788</v>
+        <v>166377</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1633326503743512</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.146115449367545</v>
+        <v>0.1433264101948764</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1838838636682134</v>
+        <v>0.1856563923374002</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>370</v>
@@ -3817,19 +3817,19 @@
         <v>274389</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>247551</v>
+        <v>246042</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>304665</v>
+        <v>301869</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1632142338804898</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1472502439171967</v>
+        <v>0.1463527202165613</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1812232028853574</v>
+        <v>0.1795600996630716</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>152579</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130777</v>
+        <v>128979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>176988</v>
+        <v>176640</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1943675155385594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1665946775660033</v>
+        <v>0.1643036610670552</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2254618937404474</v>
+        <v>0.225018580331524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>321</v>
@@ -3867,19 +3867,19 @@
         <v>217705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>196491</v>
+        <v>194265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>240315</v>
+        <v>241580</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2429333853935695</v>
+        <v>0.2429333853935696</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.219260794427166</v>
+        <v>0.2167766152953503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2681634493512149</v>
+        <v>0.2695748820642945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>486</v>
@@ -3888,19 +3888,19 @@
         <v>370285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>339807</v>
+        <v>335891</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>402681</v>
+        <v>403734</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2202559065137794</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.202126687934493</v>
+        <v>0.1997975644436771</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2395264007465057</v>
+        <v>0.2401526805352344</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>59636</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43951</v>
+        <v>44090</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79372</v>
+        <v>78590</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09544859014526673</v>
+        <v>0.09544859014526672</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0703453120905094</v>
+        <v>0.0705677794749474</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1270368149074185</v>
+        <v>0.125786002060084</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -4013,19 +4013,19 @@
         <v>49518</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38392</v>
+        <v>37931</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61635</v>
+        <v>61783</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07185660632648827</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05571218440401872</v>
+        <v>0.05504223293165446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08943947203144785</v>
+        <v>0.08965536858559767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>109</v>
@@ -4034,19 +4034,19 @@
         <v>109154</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91274</v>
+        <v>87866</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132390</v>
+        <v>131424</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08307510570846979</v>
+        <v>0.08307510570846981</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06946700539199639</v>
+        <v>0.0668733730176768</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1007598820849765</v>
+        <v>0.1000248764403095</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>213809</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187802</v>
+        <v>188211</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>241963</v>
+        <v>240637</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3422062034605998</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3005814367620234</v>
+        <v>0.3012358917590416</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3872672452482874</v>
+        <v>0.3851450818571835</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>263</v>
@@ -4084,19 +4084,19 @@
         <v>210219</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187586</v>
+        <v>188949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>232815</v>
+        <v>233242</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3050535773904182</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2722115017463662</v>
+        <v>0.2741890448527007</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3378437951850551</v>
+        <v>0.3384630637070362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>444</v>
@@ -4105,19 +4105,19 @@
         <v>424028</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>387679</v>
+        <v>391776</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>458573</v>
+        <v>459801</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3227204559288633</v>
+        <v>0.3227204559288634</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2950564875482375</v>
+        <v>0.298174473686582</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3490125266920026</v>
+        <v>0.3499472522810457</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>169472</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>147194</v>
+        <v>145014</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>194434</v>
+        <v>195886</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2712437714512903</v>
+        <v>0.2712437714512904</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2355880958481323</v>
+        <v>0.2320979661046078</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.31119653901848</v>
+        <v>0.313520642761714</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>274</v>
@@ -4155,19 +4155,19 @@
         <v>202839</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>181639</v>
+        <v>180459</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>226131</v>
+        <v>224456</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.294345216779336</v>
+        <v>0.2943452167793359</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.263580385126777</v>
+        <v>0.2618680638827032</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3281448496289545</v>
+        <v>0.3257142219310113</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>430</v>
@@ -4176,19 +4176,19 @@
         <v>372311</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>343061</v>
+        <v>341542</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>404207</v>
+        <v>405646</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2833599790762957</v>
+        <v>0.2833599790762958</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2610980173356807</v>
+        <v>0.2599423514825377</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.30763496789377</v>
+        <v>0.3087302708316468</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>79057</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62804</v>
+        <v>62052</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97811</v>
+        <v>96317</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1265330436826617</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.100519918461775</v>
+        <v>0.09931636524282236</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1565497056860149</v>
+        <v>0.1541572966852256</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -4226,19 +4226,19 @@
         <v>91197</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>76739</v>
+        <v>77542</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107189</v>
+        <v>107857</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1323390463789753</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1113583609560697</v>
+        <v>0.112523059841092</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.155545330733496</v>
+        <v>0.1565137556535837</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>212</v>
@@ -4247,19 +4247,19 @@
         <v>170255</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>147584</v>
+        <v>148629</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>193872</v>
+        <v>195296</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1295781663207018</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1123236838208782</v>
+        <v>0.1131187607338209</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.147552631189356</v>
+        <v>0.1486363308081492</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>102822</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84531</v>
+        <v>85776</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>122787</v>
+        <v>124658</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1645683912601814</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1352937157512437</v>
+        <v>0.1372867641222998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1965243400432202</v>
+        <v>0.1995190296877235</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>191</v>
@@ -4297,19 +4297,19 @@
         <v>135347</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>117180</v>
+        <v>119222</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>153931</v>
+        <v>155547</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1964055531247823</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1700432959299927</v>
+        <v>0.1730060685906724</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2233731996623336</v>
+        <v>0.2257185992952812</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>295</v>
@@ -4318,19 +4318,19 @@
         <v>238169</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>213131</v>
+        <v>212411</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>266898</v>
+        <v>265041</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1812662929656693</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1622107748589268</v>
+        <v>0.1616621661074628</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2031320356537419</v>
+        <v>0.201718452713445</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>53800</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39747</v>
+        <v>40797</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69833</v>
+        <v>70817</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06944544686052731</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05130480656133238</v>
+        <v>0.0526610563985072</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0901407842296628</v>
+        <v>0.09140988897312639</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -4443,19 +4443,19 @@
         <v>54418</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42962</v>
+        <v>42055</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67834</v>
+        <v>68934</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05715596323303881</v>
+        <v>0.0571559632330388</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0451232984968706</v>
+        <v>0.04417082101577115</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07124637478325595</v>
+        <v>0.07240214203020895</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>121</v>
@@ -4464,19 +4464,19 @@
         <v>108219</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91517</v>
+        <v>89287</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>130003</v>
+        <v>128115</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06266948677186115</v>
+        <v>0.06266948677186117</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05299747799697047</v>
+        <v>0.05170619086874271</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07528453791516174</v>
+        <v>0.07419148302469962</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>203916</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>177772</v>
+        <v>180050</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>229580</v>
+        <v>231795</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2632145785653205</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2294672516879096</v>
+        <v>0.2324076570780651</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2963417023889063</v>
+        <v>0.299200152279575</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>301</v>
@@ -4514,19 +4514,19 @@
         <v>210863</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>187494</v>
+        <v>187978</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>232081</v>
+        <v>232619</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2214709348559774</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1969263698581432</v>
+        <v>0.1974343458243384</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2437560521080831</v>
+        <v>0.2443212450943127</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>498</v>
@@ -4535,19 +4535,19 @@
         <v>414779</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>381399</v>
+        <v>380667</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>449293</v>
+        <v>449993</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2401986999243875</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2208681877440291</v>
+        <v>0.2204443125202877</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2601857194083869</v>
+        <v>0.2605907123718555</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>238651</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>213639</v>
+        <v>213696</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>262753</v>
+        <v>263904</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3080498828375456</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2757643529724364</v>
+        <v>0.2758388271095716</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3391609077736891</v>
+        <v>0.3406464581269681</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>452</v>
@@ -4585,19 +4585,19 @@
         <v>308520</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>285200</v>
+        <v>284379</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>332783</v>
+        <v>335820</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3240410192897046</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2995475675290884</v>
+        <v>0.2986855773206753</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3495246933385179</v>
+        <v>0.3527139884084866</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>721</v>
@@ -4606,19 +4606,19 @@
         <v>547171</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>511903</v>
+        <v>510880</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>585230</v>
+        <v>586317</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3168667953829906</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2964426867533129</v>
+        <v>0.2958506085933722</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3389068086535511</v>
+        <v>0.3395358393134321</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>139159</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>119781</v>
+        <v>118975</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>160966</v>
+        <v>160555</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1796263320976476</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1546129875772601</v>
+        <v>0.1535729189809049</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2077743867857443</v>
+        <v>0.2072435181019478</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>249</v>
@@ -4656,19 +4656,19 @@
         <v>161789</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>143773</v>
+        <v>143536</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>182324</v>
+        <v>183292</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1699280786088841</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1510053692705272</v>
+        <v>0.150756882465669</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1914967573129946</v>
+        <v>0.1925131490754522</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>410</v>
@@ -4677,19 +4677,19 @@
         <v>300948</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>274197</v>
+        <v>273256</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>329796</v>
+        <v>331995</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1742790790672077</v>
+        <v>0.1742790790672078</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1587875143954416</v>
+        <v>0.1582423870466681</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1909849829100794</v>
+        <v>0.1922581083275402</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>139188</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>119809</v>
+        <v>121677</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>159971</v>
+        <v>160645</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1796637596389588</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1546487209622528</v>
+        <v>0.1570609817896068</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2064903363704656</v>
+        <v>0.2073599555057662</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>323</v>
@@ -4727,19 +4727,19 @@
         <v>216512</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>194654</v>
+        <v>196291</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>239641</v>
+        <v>240721</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2274040040123951</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2044461392852996</v>
+        <v>0.2061655002892646</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2516968716429608</v>
+        <v>0.252830790646913</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>492</v>
@@ -4748,19 +4748,19 @@
         <v>355700</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>325282</v>
+        <v>322758</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>387894</v>
+        <v>383789</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.205985938853553</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1883707212969478</v>
+        <v>0.1869092045742168</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2246291954932257</v>
+        <v>0.2222521005044935</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>248042</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>215730</v>
+        <v>214785</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>284524</v>
+        <v>283057</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.08954787410597108</v>
+        <v>0.08954787410597106</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07788258860472178</v>
+        <v>0.07754159526952767</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1027186450144394</v>
+        <v>0.1021891928240745</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>304</v>
@@ -4873,19 +4873,19 @@
         <v>231439</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>206485</v>
+        <v>207344</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>259779</v>
+        <v>260101</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07232087750754188</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06452314308607512</v>
+        <v>0.06479146502927764</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08117673923137148</v>
+        <v>0.08127726117611961</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>518</v>
@@ -4894,19 +4894,19 @@
         <v>479481</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>439253</v>
+        <v>438488</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>526975</v>
+        <v>520319</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.08031364478014844</v>
+        <v>0.08031364478014845</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07357541957445812</v>
+        <v>0.07344731555766953</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08826896836451373</v>
+        <v>0.08715415931961279</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>731310</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>681608</v>
+        <v>679966</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>781808</v>
+        <v>778471</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2640172980157824</v>
+        <v>0.2640172980157823</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2460735707772764</v>
+        <v>0.245481115271947</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2822479642543107</v>
+        <v>0.2810430388335397</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1090</v>
@@ -4944,19 +4944,19 @@
         <v>775679</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>729533</v>
+        <v>732202</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>818321</v>
+        <v>820514</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2423869255282635</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2279671178315268</v>
+        <v>0.2288011053265252</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2557116868075613</v>
+        <v>0.2563971151808211</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1770</v>
@@ -4965,19 +4965,19 @@
         <v>1506990</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1443020</v>
+        <v>1444935</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1575008</v>
+        <v>1571230</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2524227162898577</v>
+        <v>0.2524227162898576</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2417077929254756</v>
+        <v>0.2420285364813884</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2638159575844633</v>
+        <v>0.2631830244485783</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>808088</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>760690</v>
+        <v>754389</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>858175</v>
+        <v>856898</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2917354045406607</v>
+        <v>0.2917354045406606</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2746237710714058</v>
+        <v>0.2723492391884345</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3098180211684604</v>
+        <v>0.309356805055131</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1426</v>
@@ -5015,19 +5015,19 @@
         <v>934644</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>889877</v>
+        <v>894290</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>980100</v>
+        <v>977567</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2920608117885256</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2780719503825637</v>
+        <v>0.2794507220353185</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3062651932726812</v>
+        <v>0.3054735760719445</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2271</v>
@@ -5036,19 +5036,19 @@
         <v>1742732</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1676284</v>
+        <v>1677915</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1810979</v>
+        <v>1811516</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2919098333874942</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2807797823058024</v>
+        <v>0.2810529375782141</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3033413856881211</v>
+        <v>0.3034312481661294</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>462637</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>423499</v>
+        <v>424737</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>504806</v>
+        <v>506111</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1670208070954581</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1528914776586928</v>
+        <v>0.1533383622706213</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1822447223734343</v>
+        <v>0.1827159916854525</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>847</v>
@@ -5086,19 +5086,19 @@
         <v>524211</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>492796</v>
+        <v>489023</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>560276</v>
+        <v>560292</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1638072210708529</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1539904934614726</v>
+        <v>0.1528116327930422</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.17507689915646</v>
+        <v>0.1750821146945076</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1367</v>
@@ -5107,19 +5107,19 @@
         <v>986847</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>934052</v>
+        <v>938271</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1045140</v>
+        <v>1044911</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1652982206805883</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1564549465915624</v>
+        <v>0.157161682620092</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1750622323720184</v>
+        <v>0.1750239961330298</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>519857</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>477767</v>
+        <v>479164</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>559576</v>
+        <v>562173</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1876786162421278</v>
+        <v>0.1876786162421277</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1724831407417306</v>
+        <v>0.172987336579705</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2020176654577125</v>
+        <v>0.2029554175412802</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1134</v>
@@ -5157,19 +5157,19 @@
         <v>734196</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>696342</v>
+        <v>693034</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>776907</v>
+        <v>775510</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.229424164104816</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2175954313979455</v>
+        <v>0.216561617141391</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2427707354579591</v>
+        <v>0.2423339689757521</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1724</v>
@@ -5178,19 +5178,19 @@
         <v>1254053</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1199403</v>
+        <v>1198900</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1318359</v>
+        <v>1315920</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2100555848619113</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2009015592776648</v>
+        <v>0.2008173187069311</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2208267737441068</v>
+        <v>0.2204183612436821</v>
       </c>
     </row>
     <row r="33">
